--- a/logic.example.xlsx
+++ b/logic.example.xlsx
@@ -5,17 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Этапы" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Переменные" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>Этап</t>
   </si>
@@ -35,12 +36,24 @@
     <t>Название</t>
   </si>
   <si>
+    <t>Описание</t>
+  </si>
+  <si>
     <t>Тип</t>
   </si>
   <si>
     <t>Данные</t>
   </si>
   <si>
+    <t>Условие</t>
+  </si>
+  <si>
+    <t>Действие</t>
+  </si>
+  <si>
+    <t>Параметр</t>
+  </si>
+  <si>
     <t>Квест готов к запуску</t>
   </si>
   <si>
@@ -53,7 +66,19 @@
     <t>Переход на этап</t>
   </si>
   <si>
-    <t>Ожидание, пока игроки не опустят рычаг</t>
+    <t>Начальное состояние</t>
+  </si>
+  <si>
+    <t>Сирена выключена</t>
+  </si>
+  <si>
+    <t>Команда устройству</t>
+  </si>
+  <si>
+    <t>alarm_first/off/0</t>
+  </si>
+  <si>
+    <t>Игроки задели луч</t>
   </si>
   <si>
     <t>Рапорт устройства</t>
@@ -62,31 +87,73 @@
     <t>alarm_first/touch_ray/0</t>
   </si>
   <si>
+    <t>Рычаг разблокирован</t>
+  </si>
+  <si>
+    <t>switch_locker_1/off/0</t>
+  </si>
+  <si>
+    <t>Игроки опустили рычаг</t>
+  </si>
+  <si>
     <t>switch_1/on/0</t>
   </si>
   <si>
+    <t>Дым-машина дымит</t>
+  </si>
+  <si>
+    <t>smoke_machine/on/0</t>
+  </si>
+  <si>
     <t>Игроки задели луч, ожидание, пока отсканируются заново</t>
   </si>
   <si>
-    <t>Команда устройству</t>
-  </si>
-  <si>
-    <t>alarm_first/on/1</t>
+    <t>alarm_first/on/0</t>
+  </si>
+  <si>
+    <t>Игроки приложили руки к сканерам</t>
   </si>
   <si>
     <t>sense_panels/touched/N</t>
   </si>
   <si>
+    <t>Приложили все, игроков больше 4</t>
+  </si>
+  <si>
+    <t>N&gt;=gamer_count&amp;gamer_count&gt;4</t>
+  </si>
+  <si>
     <t>audio_player_1/play_channel_2/file_1</t>
   </si>
   <si>
+    <t>Приложили все, игроков не больше 4</t>
+  </si>
+  <si>
+    <t>N&gt;=gamer_count&amp;gamer_count&lt;=4</t>
+  </si>
+  <si>
     <t>switch_locker_1/on/0</t>
   </si>
   <si>
-    <t>Игроки опустили рычаг</t>
+    <t>Выключаем дым-машину</t>
   </si>
   <si>
     <t>smoke_machine/off/0</t>
+  </si>
+  <si>
+    <t>Ожидание нажатия 'На старте'</t>
+  </si>
+  <si>
+    <t>Игроки на старте</t>
+  </si>
+  <si>
+    <t>имя</t>
+  </si>
+  <si>
+    <t>Количество игроков</t>
+  </si>
+  <si>
+    <t>gamer_count</t>
   </si>
 </sst>
 </file>
@@ -96,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -138,13 +205,39 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009933"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3399FF"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -188,7 +281,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -197,6 +290,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -205,7 +310,43 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -218,6 +359,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF009933"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3399FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -226,22 +427,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3316326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="31.3112244897959"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.05612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.6530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4489795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.5918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2295918367347"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3316326530612"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.3112244897959"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="36.25"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.3112244897959"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.6785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -249,277 +454,433 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="A3" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>2</v>
+      <c r="B3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="14" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="A4" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="14" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="14" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="14" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="H11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="L11" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -529,4 +890,56 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.93367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/logic.example.xlsx
+++ b/logic.example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Этапы" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>Этап</t>
   </si>
@@ -36,111 +36,123 @@
     <t>Название</t>
   </si>
   <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Устройство/команда</t>
+  </si>
+  <si>
+    <t>Данные</t>
+  </si>
+  <si>
     <t>Описание</t>
   </si>
   <si>
-    <t>Тип</t>
-  </si>
-  <si>
-    <t>Данные</t>
-  </si>
-  <si>
     <t>Условие</t>
   </si>
   <si>
     <t>Действие</t>
   </si>
   <si>
-    <t>Параметр</t>
-  </si>
-  <si>
     <t>Квест готов к запуску</t>
   </si>
   <si>
     <t>Нажата кнопка</t>
   </si>
   <si>
-    <t>Начать квест</t>
+    <t>Начать</t>
   </si>
   <si>
     <t>Переход на этап</t>
   </si>
   <si>
+    <t>Инициализировать таймер</t>
+  </si>
+  <si>
+    <t>quest_timer</t>
+  </si>
+  <si>
     <t>Начальное состояние</t>
   </si>
   <si>
+    <t>Команда устройству</t>
+  </si>
+  <si>
+    <t>alarm_first/off</t>
+  </si>
+  <si>
     <t>Сирена выключена</t>
   </si>
   <si>
-    <t>Команда устройству</t>
-  </si>
-  <si>
-    <t>alarm_first/off/0</t>
+    <t>Рапорт устройства</t>
+  </si>
+  <si>
+    <t>alarm_first/touch_ray</t>
   </si>
   <si>
     <t>Игроки задели луч</t>
   </si>
   <si>
-    <t>Рапорт устройства</t>
-  </si>
-  <si>
-    <t>alarm_first/touch_ray/0</t>
+    <t>switch_locker_1/off</t>
   </si>
   <si>
     <t>Рычаг разблокирован</t>
   </si>
   <si>
-    <t>switch_locker_1/off/0</t>
+    <t>switch_1/on</t>
   </si>
   <si>
     <t>Игроки опустили рычаг</t>
   </si>
   <si>
-    <t>switch_1/on/0</t>
+    <t>smoke_machine/on</t>
   </si>
   <si>
     <t>Дым-машина дымит</t>
   </si>
   <si>
-    <t>smoke_machine/on/0</t>
-  </si>
-  <si>
     <t>Игроки задели луч, ожидание, пока отсканируются заново</t>
   </si>
   <si>
-    <t>alarm_first/on/0</t>
+    <t>alarm_first/on</t>
+  </si>
+  <si>
+    <t>sense_panels/touched</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>Игроки приложили руки к сканерам</t>
   </si>
   <si>
-    <t>sense_panels/touched/N</t>
+    <t>N&gt;=gamers_count&amp;&amp;gamers_count&gt;4</t>
   </si>
   <si>
     <t>Приложили все, игроков больше 4</t>
   </si>
   <si>
-    <t>N&gt;=gamer_count&amp;gamer_count&gt;4</t>
-  </si>
-  <si>
-    <t>audio_player_1/play_channel_2/file_1</t>
+    <t>audio_player_1/play_channel2</t>
+  </si>
+  <si>
+    <t>file1</t>
+  </si>
+  <si>
+    <t>N&gt;=gamers_count&amp;&amp;gamers_count&lt;=4</t>
   </si>
   <si>
     <t>Приложили все, игроков не больше 4</t>
   </si>
   <si>
-    <t>N&gt;=gamer_count&amp;gamer_count&lt;=4</t>
-  </si>
-  <si>
-    <t>switch_locker_1/on/0</t>
+    <t>switch_locker_1/on</t>
+  </si>
+  <si>
+    <t>smoke_machine/off</t>
   </si>
   <si>
     <t>Выключаем дым-машину</t>
   </si>
   <si>
-    <t>smoke_machine/off/0</t>
-  </si>
-  <si>
     <t>Ожидание нажатия 'На старте'</t>
   </si>
   <si>
@@ -153,7 +165,13 @@
     <t>Количество игроков</t>
   </si>
   <si>
-    <t>gamer_count</t>
+    <t>gamers_count</t>
+  </si>
+  <si>
+    <t>Оператор</t>
+  </si>
+  <si>
+    <t>operator_id</t>
   </si>
 </sst>
 </file>
@@ -334,7 +352,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -427,26 +445,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.6530612244898"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.7959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4489795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.5918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.4897959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="15.2295918367347"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3316326530612"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.3112244897959"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="36.25"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.3112244897959"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="15" min="9" style="0" width="36.25"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="36.1071428571429"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="13.6785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -459,17 +476,20 @@
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
       <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
@@ -481,32 +501,41 @@
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>11</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -519,249 +548,313 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="14" t="n">
+      <c r="N3" s="14"/>
+      <c r="O3" s="14" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="14" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="E5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14" t="s">
+      <c r="H5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="14" t="n">
+      <c r="N5" s="14"/>
+      <c r="O5" s="14" t="n">
         <v>30</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="14" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="I6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="K6" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="L6" s="14"/>
+      <c r="M6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="13" t="s">
+      <c r="C8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="E8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="J8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="14" t="n">
+      <c r="N8" s="14"/>
+      <c r="O8" s="14" t="n">
         <v>50</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="14" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="12" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="F9" s="12"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="n">
-        <v>40</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="E10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="n">
         <v>50</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="14" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="B12" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="I12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="L12" s="14"/>
+      <c r="M12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11"/>
@@ -769,13 +862,16 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11"/>
@@ -783,13 +879,16 @@
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11"/>
@@ -797,13 +896,16 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11"/>
@@ -811,13 +913,16 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11"/>
@@ -825,13 +930,16 @@
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
@@ -839,13 +947,16 @@
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11"/>
@@ -853,13 +964,16 @@
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11"/>
@@ -867,20 +981,40 @@
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:O1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -897,10 +1031,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -916,10 +1050,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -927,12 +1061,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
